--- a/data-raw/Dict.en.xlsx
+++ b/data-raw/Dict.en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f17b1bfff0241881/RProjects/rggpmt/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/OneDrive/RProjects/Rgogo/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{1881AF6B-A7B1-7047-ABF8-2396083C6C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E3A5FEB-106B-A24F-8A05-363A503EA738}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E523EF-CD8E-9248-B01A-73FD93C6A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
+    <workbookView xWindow="2820" yWindow="500" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="138">
   <si>
     <t>Value</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>refund of premium on death</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>conn</t>
+  </si>
+  <si>
+    <t>connection</t>
   </si>
 </sst>
 </file>
@@ -786,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BCE8C-A52C-3F45-86D8-8A72C3771248}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,463 +915,479 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>103</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B70">
-    <sortCondition ref="A2:A70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B72">
+    <sortCondition ref="A2:A72"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/Dict.en.xlsx
+++ b/data-raw/Dict.en.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/OneDrive/RProjects/Rgogo/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f17b1bfff0241881/RProjects/Rgogo/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E523EF-CD8E-9248-B01A-73FD93C6A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{91E523EF-CD8E-9248-B01A-73FD93C6A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E644E8B-4358-E245-9C9D-39D9D4EF7AF3}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="500" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
   <si>
     <t>Value</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>connection</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -798,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BCE8C-A52C-3F45-86D8-8A72C3771248}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1019,95 +1025,95 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -1115,279 +1121,287 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>103</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B72">
-    <sortCondition ref="A2:A72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
+    <sortCondition ref="A2:A73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/Dict.en.xlsx
+++ b/data-raw/Dict.en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f17b1bfff0241881/RProjects/Rgogo/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{91E523EF-CD8E-9248-B01A-73FD93C6A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E644E8B-4358-E245-9C9D-39D9D4EF7AF3}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{91E523EF-CD8E-9248-B01A-73FD93C6A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AE6E7D93-C6CD-3D47-B28C-F9D49DACFD2C}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="500" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
+    <workbookView xWindow="13940" yWindow="620" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="142">
   <si>
     <t>Value</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>retn</t>
+  </si>
+  <si>
+    <t>retention</t>
   </si>
 </sst>
 </file>
@@ -804,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BCE8C-A52C-3F45-86D8-8A72C3771248}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1281,127 +1287,135 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>103</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
-    <sortCondition ref="A2:A73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B74">
+    <sortCondition ref="A2:A74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/Dict.en.xlsx
+++ b/data-raw/Dict.en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f17b1bfff0241881/RProjects/Rgogo/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/RProjects/Rgogo/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{91E523EF-CD8E-9248-B01A-73FD93C6A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AE6E7D93-C6CD-3D47-B28C-F9D49DACFD2C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CBDC85-C406-8B4B-B28D-4A7E0D244CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13940" yWindow="620" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
   <si>
     <t>Value</t>
   </si>
@@ -459,6 +459,36 @@
   </si>
   <si>
     <t>retention</t>
+  </si>
+  <si>
+    <t>survr</t>
+  </si>
+  <si>
+    <t>survivor</t>
+  </si>
+  <si>
+    <t>jl</t>
+  </si>
+  <si>
+    <t>joint life</t>
+  </si>
+  <si>
+    <t>jls</t>
+  </si>
+  <si>
+    <t>joint and last survivor</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>immediate annuity</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>last survivor</t>
   </si>
 </sst>
 </file>
@@ -810,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BCE8C-A52C-3F45-86D8-8A72C3771248}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1031,391 +1061,431 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>103</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B79" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B74">
-    <sortCondition ref="A2:A74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B79">
+    <sortCondition ref="A2:A79"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/Dict.en.xlsx
+++ b/data-raw/Dict.en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/RProjects/Rgogo/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CBDC85-C406-8B4B-B28D-4A7E0D244CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A307BB-13A0-6047-A887-237872001498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="620" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
+    <workbookView xWindow="46320" yWindow="460" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
   <si>
     <t>Value</t>
   </si>
@@ -489,6 +489,18 @@
   </si>
   <si>
     <t>last survivor</t>
+  </si>
+  <si>
+    <t>iajs</t>
+  </si>
+  <si>
+    <t>joint and survivor immediate annuity</t>
+  </si>
+  <si>
+    <t>pct</t>
+  </si>
+  <si>
+    <t>percent</t>
   </si>
 </sst>
 </file>
@@ -840,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BCE8C-A52C-3F45-86D8-8A72C3771248}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,127 +1081,127 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -1197,295 +1209,311 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>103</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B79">
-    <sortCondition ref="A2:A79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B81">
+    <sortCondition ref="A2:A81"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/Dict.en.xlsx
+++ b/data-raw/Dict.en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/RProjects/Rgogo/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A307BB-13A0-6047-A887-237872001498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29B0626-255E-F441-975C-2DDE5A24933D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46320" yWindow="460" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
   <si>
     <t>Value</t>
   </si>
@@ -501,6 +501,12 @@
   </si>
   <si>
     <t>percent</t>
+  </si>
+  <si>
+    <t>anutz</t>
+  </si>
+  <si>
+    <t>annuitization</t>
   </si>
 </sst>
 </file>
@@ -852,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BCE8C-A52C-3F45-86D8-8A72C3771248}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,311 +911,311 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -1217,303 +1223,311 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>103</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B81">
-    <sortCondition ref="A2:A81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B82">
+    <sortCondition ref="A2:A82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/Dict.en.xlsx
+++ b/data-raw/Dict.en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/RProjects/Rgogo/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29B0626-255E-F441-975C-2DDE5A24933D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E874DFA7-6977-9C4E-A872-A3396F1DDE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46320" yWindow="460" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="165">
   <si>
     <t>Value</t>
   </si>
@@ -491,12 +491,6 @@
     <t>last survivor</t>
   </si>
   <si>
-    <t>iajs</t>
-  </si>
-  <si>
-    <t>joint and survivor immediate annuity</t>
-  </si>
-  <si>
     <t>pct</t>
   </si>
   <si>
@@ -507,6 +501,33 @@
   </si>
   <si>
     <t>annuitization</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>joint and survivor</t>
+  </si>
+  <si>
+    <t>prd</t>
+  </si>
+  <si>
+    <t>nsp</t>
+  </si>
+  <si>
+    <t>net single premium</t>
+  </si>
+  <si>
+    <t>imm</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>nfb</t>
+  </si>
+  <si>
+    <t>nonforfeiture benefit</t>
   </si>
 </sst>
 </file>
@@ -858,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BCE8C-A52C-3F45-86D8-8A72C3771248}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,10 +932,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1095,18 +1116,18 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1167,63 +1188,63 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -1231,303 +1252,327 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>103</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B82">
-    <sortCondition ref="A2:A82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B85">
+    <sortCondition ref="A2:A85"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/Dict.en.xlsx
+++ b/data-raw/Dict.en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/RProjects/Rgogo/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E874DFA7-6977-9C4E-A872-A3396F1DDE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A7F368-A5A0-C548-8E5A-B0D3271DE8AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46320" yWindow="460" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
+    <workbookView xWindow="46320" yWindow="500" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="169">
   <si>
     <t>Value</t>
   </si>
@@ -528,6 +528,18 @@
   </si>
   <si>
     <t>nonforfeiture benefit</t>
+  </si>
+  <si>
+    <t>coi</t>
+  </si>
+  <si>
+    <t>cost of insurance</t>
+  </si>
+  <si>
+    <t>exs</t>
+  </si>
+  <si>
+    <t>excess</t>
   </si>
 </sst>
 </file>
@@ -879,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BCE8C-A52C-3F45-86D8-8A72C3771248}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,583 +1008,599 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>103</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B85">
-    <sortCondition ref="A2:A85"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B87">
+    <sortCondition ref="A2:A87"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
